--- a/biology/Biologie cellulaire et moléculaire/Métatranscriptomique/Métatranscriptomique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Métatranscriptomique/Métatranscriptomique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tatranscriptomique</t>
+          <t>Métatranscriptomique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La métatranscriptomique est à la transcriptomique ce que la métagénomique est à la génomique. Si la transcriptomique est l'étude du transcriptome, c'est-à-dire l'étude de l'ensemble des ARN issus de la transcription du génome d'un organisme, la métatranscriptomique a pour but l'étude de l'ensemble des ARN issus de la transcription des génomes de l'ensemble des organismes faisant partie d'un milieu. En raison des difficultés techniques (la demi-vie courte de l'ARNm, par exemple) dans la collecte de l'ARN lié à un environnement, il y a eu relativement peu d'études metatranscriptomiques in situ sur les communautés microbiennes à ce jour[1]. Les travaux d'échantillonnage de la mission Tara Oceans avec l'expédition 2009 - 2012, constitue l'un des premiers exemples de travaux de recherche de métaséquençage en milieu marin où ont été menées des recherches non seulement en métagénomique mais aussi en métatranscriptomique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La métatranscriptomique est à la transcriptomique ce que la métagénomique est à la génomique. Si la transcriptomique est l'étude du transcriptome, c'est-à-dire l'étude de l'ensemble des ARN issus de la transcription du génome d'un organisme, la métatranscriptomique a pour but l'étude de l'ensemble des ARN issus de la transcription des génomes de l'ensemble des organismes faisant partie d'un milieu. En raison des difficultés techniques (la demi-vie courte de l'ARNm, par exemple) dans la collecte de l'ARN lié à un environnement, il y a eu relativement peu d'études metatranscriptomiques in situ sur les communautés microbiennes à ce jour. Les travaux d'échantillonnage de la mission Tara Oceans avec l'expédition 2009 - 2012, constitue l'un des premiers exemples de travaux de recherche de métaséquençage en milieu marin où ont été menées des recherches non seulement en métagénomique mais aussi en métatranscriptomique.
 </t>
         </is>
       </c>
